--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam1-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam1-Itgam.xlsx
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>99.11651099999999</v>
+        <v>5.828753</v>
       </c>
       <c r="H2">
-        <v>297.349533</v>
+        <v>17.486259</v>
       </c>
       <c r="I2">
-        <v>0.799346251215574</v>
+        <v>0.1911291943607339</v>
       </c>
       <c r="J2">
-        <v>0.799346251215574</v>
+        <v>0.1911291943607339</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,10 +552,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>57.20386266666666</v>
+        <v>0.01393633333333333</v>
       </c>
       <c r="N2">
-        <v>171.611588</v>
+        <v>0.041809</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>5669.847283243154</v>
+        <v>0.08123144472566667</v>
       </c>
       <c r="R2">
-        <v>51028.62554918839</v>
+        <v>0.731083002531</v>
       </c>
       <c r="S2">
-        <v>0.799346251215574</v>
+        <v>0.1911291943607339</v>
       </c>
       <c r="T2">
-        <v>0.799346251215574</v>
+        <v>0.1911291943607339</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,10 +602,10 @@
         <v>70.74855599999999</v>
       </c>
       <c r="I3">
-        <v>0.1901889417714845</v>
+        <v>0.7732994524709527</v>
       </c>
       <c r="J3">
-        <v>0.1901889417714845</v>
+        <v>0.7732994524709526</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,10 +614,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>57.20386266666666</v>
+        <v>0.01393633333333333</v>
       </c>
       <c r="N3">
-        <v>171.611588</v>
+        <v>0.041809</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>1349.030227096325</v>
+        <v>0.3286584864226667</v>
       </c>
       <c r="R3">
-        <v>12141.27204386693</v>
+        <v>2.957926377804</v>
       </c>
       <c r="S3">
-        <v>0.1901889417714845</v>
+        <v>0.7732994524709527</v>
       </c>
       <c r="T3">
-        <v>0.1901889417714845</v>
+        <v>0.7732994524709526</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.297604333333333</v>
+        <v>1.084798333333333</v>
       </c>
       <c r="H4">
-        <v>3.892813</v>
+        <v>3.254395</v>
       </c>
       <c r="I4">
-        <v>0.01046480701294141</v>
+        <v>0.03557135316831352</v>
       </c>
       <c r="J4">
-        <v>0.01046480701294141</v>
+        <v>0.03557135316831351</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,10 +676,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>57.20386266666666</v>
+        <v>0.01393633333333333</v>
       </c>
       <c r="N4">
-        <v>171.611588</v>
+        <v>0.041809</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>74.22798007967155</v>
+        <v>0.01511811117277778</v>
       </c>
       <c r="R4">
-        <v>668.0518207170439</v>
+        <v>0.136063000555</v>
       </c>
       <c r="S4">
-        <v>0.01046480701294141</v>
+        <v>0.03557135316831352</v>
       </c>
       <c r="T4">
-        <v>0.01046480701294141</v>
+        <v>0.03557135316831351</v>
       </c>
     </row>
   </sheetData>
